--- a/RUTEO CAMION.xlsx
+++ b/RUTEO CAMION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmenghi\Desktop\RUTEO\SALUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C05EA465-C0BC-47A7-A58B-E56BBCC59C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46832FE6-1447-436B-B703-FEFD910945D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07AB3E6F-25C9-44C2-8EFE-36B02A623793}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7E6C4200-3E5F-49E5-B09E-C2143D653D49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="353">
   <si>
     <t>Equipo</t>
   </si>
@@ -174,16 +174,19 @@
     <t>Calidad – GEO</t>
   </si>
   <si>
-    <t>1229243387</t>
-  </si>
-  <si>
-    <t>VEGA, MYRIAN EDITH</t>
-  </si>
-  <si>
-    <t>PACIFICO RODRIGUEZ 5374</t>
-  </si>
-  <si>
-    <t>VILLA BALLESTER (1653)</t>
+    <t>1229515913</t>
+  </si>
+  <si>
+    <t>CESAC ZS 10 ( 811401)</t>
+  </si>
+  <si>
+    <t>AMANCIO ALCORTA 1402</t>
+  </si>
+  <si>
+    <t>CAPITAL FEDERAL</t>
+  </si>
+  <si>
+    <t>Capital Federal</t>
   </si>
   <si>
     <t>0800</t>
@@ -198,34 +201,37 @@
     <t>1</t>
   </si>
   <si>
-    <t>Fresenius Medical Care Argentina SA</t>
-  </si>
-  <si>
-    <t>80065236</t>
-  </si>
-  <si>
-    <t>000000001229243387</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>1653</t>
+    <t>GOBIERNO DE LA CIUDAD DE BUENOS AIR</t>
+  </si>
+  <si>
+    <t>1 /</t>
+  </si>
+  <si>
+    <t>811401</t>
+  </si>
+  <si>
+    <t>000000001229515913</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1283</t>
   </si>
   <si>
     <t>Envio</t>
   </si>
   <si>
-    <t>20251120</t>
-  </si>
-  <si>
-    <t>20251124</t>
-  </si>
-  <si>
-    <t>Dist. de Medic. Pacientes Particulares</t>
-  </si>
-  <si>
-    <t>GBAN</t>
+    <t>20251125</t>
+  </si>
+  <si>
+    <t>DISTRIBUCION URGENTE / CON SEGURO</t>
+  </si>
+  <si>
+    <t>No Visitado</t>
+  </si>
+  <si>
+    <t>BUE</t>
   </si>
   <si>
     <t>DESPACHADO</t>
@@ -234,796 +240,847 @@
     <t>AR</t>
   </si>
   <si>
-    <t>Dist. medicamentos, insum. y Tec. médica</t>
+    <t>Dist. Medicación y React. Ens. Clínicos</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>1229243736</t>
-  </si>
-  <si>
-    <t>ALVARENGA FIGUEREDO, DANIEL ELISEO</t>
-  </si>
-  <si>
-    <t>HIPÓLITO YRIGOYEN 357</t>
-  </si>
-  <si>
-    <t>SAN VICENTE (1865)</t>
-  </si>
-  <si>
-    <t>80066086</t>
-  </si>
-  <si>
-    <t>000000001229243736</t>
-  </si>
-  <si>
-    <t>1865</t>
-  </si>
-  <si>
-    <t>GBAS</t>
-  </si>
-  <si>
-    <t>1229243969</t>
-  </si>
-  <si>
-    <t>BULLIAN, CLAUDIO ORLANDO</t>
-  </si>
-  <si>
-    <t>FORMOSA 4853</t>
-  </si>
-  <si>
-    <t>80065272</t>
-  </si>
-  <si>
-    <t>000000001229243969</t>
-  </si>
-  <si>
-    <t>1229315451</t>
-  </si>
-  <si>
-    <t>NUÑEZ, VANESA ALEJANDRA</t>
-  </si>
-  <si>
-    <t>BOLIVAR 2032</t>
-  </si>
-  <si>
-    <t>80065599</t>
-  </si>
-  <si>
-    <t>000000001229315451</t>
-  </si>
-  <si>
-    <t>1864</t>
-  </si>
-  <si>
-    <t>20251121</t>
-  </si>
-  <si>
-    <t>20251125</t>
-  </si>
-  <si>
-    <t>1229315612</t>
-  </si>
-  <si>
-    <t>OCHOA, YESICA SOLEDAD</t>
-  </si>
-  <si>
-    <t>COLON 377</t>
-  </si>
-  <si>
-    <t>ALEJANDRO KORN</t>
-  </si>
-  <si>
-    <t>Buenos Aires</t>
-  </si>
-  <si>
-    <t>1159347057</t>
-  </si>
-  <si>
-    <t>80065556</t>
-  </si>
-  <si>
-    <t>000000001229315612</t>
-  </si>
-  <si>
-    <t>1229315616</t>
-  </si>
-  <si>
-    <t>RD- ALBACETTI, DIANA</t>
-  </si>
-  <si>
-    <t>JUAN DE GARAY 2668</t>
-  </si>
-  <si>
-    <t>GLEW (1856)</t>
-  </si>
-  <si>
-    <t>80065560</t>
-  </si>
-  <si>
-    <t>000000001229315616</t>
-  </si>
-  <si>
-    <t>1856</t>
-  </si>
-  <si>
-    <t>1229315731</t>
-  </si>
-  <si>
-    <t>ROMERO CUARESMA, EVELYN</t>
-  </si>
-  <si>
-    <t>BOGOTA 433</t>
-  </si>
-  <si>
-    <t>GUERNICA (1862)</t>
-  </si>
-  <si>
-    <t>80065581</t>
-  </si>
-  <si>
-    <t>000000001229315731</t>
-  </si>
-  <si>
-    <t>1664</t>
-  </si>
-  <si>
-    <t>1229315732</t>
-  </si>
-  <si>
-    <t>ACOSTA, LEONOR MARIA</t>
-  </si>
-  <si>
-    <t>HIDALGO MZ 3 ED 2 1 B S N</t>
-  </si>
-  <si>
-    <t>LONGCHAMPS (1854)</t>
-  </si>
-  <si>
-    <t>80065582</t>
-  </si>
-  <si>
-    <t>000000001229315732</t>
-  </si>
-  <si>
-    <t>1854</t>
-  </si>
-  <si>
-    <t>1229570792</t>
-  </si>
-  <si>
-    <t>HOSPITAL DE CLÍNICAS (1021562)</t>
-  </si>
-  <si>
-    <t>AV. CORDOBA 2351</t>
-  </si>
-  <si>
-    <t>CAPITAL FEDERAL</t>
-  </si>
-  <si>
-    <t>Capital Federal</t>
-  </si>
-  <si>
-    <t>GOBIERNO DE LA CIUDAD DE BUENOS AIR</t>
-  </si>
-  <si>
-    <t>5950-8480/8479 /</t>
-  </si>
-  <si>
-    <t>1021562</t>
-  </si>
-  <si>
-    <t>000000001229570792</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1028</t>
+    <t>1229516590</t>
+  </si>
+  <si>
+    <t>CESAC 48 (811244)</t>
+  </si>
+  <si>
+    <t>AV. FERNANDEZ DE LA CRUZ 1745/53</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8 /</t>
+  </si>
+  <si>
+    <t>811244</t>
+  </si>
+  <si>
+    <t>000000001229516590</t>
+  </si>
+  <si>
+    <t>1437</t>
+  </si>
+  <si>
+    <t>1229518316</t>
+  </si>
+  <si>
+    <t>CESAC ZS 41 (811456)</t>
+  </si>
+  <si>
+    <t>MINISTRO BRIN 842</t>
+  </si>
+  <si>
+    <t>811456</t>
+  </si>
+  <si>
+    <t>000000001229518316</t>
+  </si>
+  <si>
+    <t>1158</t>
+  </si>
+  <si>
+    <t>DISTRIBUCION PROGRAMADA CON SEGURO</t>
+  </si>
+  <si>
+    <t>1229518503</t>
+  </si>
+  <si>
+    <t>CESAC ZS 16 (811242)</t>
+  </si>
+  <si>
+    <t>OSVALDO CRUZ 2045</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>811242</t>
+  </si>
+  <si>
+    <t>000000001229518503</t>
+  </si>
+  <si>
+    <t>1293</t>
+  </si>
+  <si>
+    <t>1229609283</t>
+  </si>
+  <si>
+    <t>CECILIA GRIERSON (1021458)</t>
+  </si>
+  <si>
+    <t>AV CRUZ 4402</t>
+  </si>
+  <si>
+    <t>1021458</t>
+  </si>
+  <si>
+    <t>000000001229609283</t>
+  </si>
+  <si>
+    <t>1439</t>
   </si>
   <si>
     <t>20251126</t>
   </si>
   <si>
-    <t>DISTRIBUCION PROGRAMADA CON SEGURO</t>
-  </si>
-  <si>
-    <t>BUE</t>
-  </si>
-  <si>
-    <t>Dist. Medicación y React. Ens. Clínicos</t>
-  </si>
-  <si>
-    <t>1229571576</t>
-  </si>
-  <si>
-    <t>CESAC 22 (811404 )</t>
+    <t>1229609413</t>
+  </si>
+  <si>
+    <t>CESAC ZS 20 (811405)</t>
+  </si>
+  <si>
+    <t>ANA M JANER 2330 ED 6 PB O Y P B° 1 11 1</t>
+  </si>
+  <si>
+    <t>811405</t>
+  </si>
+  <si>
+    <t>000000001229609413</t>
+  </si>
+  <si>
+    <t>1229609433</t>
+  </si>
+  <si>
+    <t>ARGERICH (1021987)</t>
+  </si>
+  <si>
+    <t>CORBETA PY Y MARGALL 750</t>
+  </si>
+  <si>
+    <t>1021987</t>
+  </si>
+  <si>
+    <t>000000001229609433</t>
+  </si>
+  <si>
+    <t>1155</t>
+  </si>
+  <si>
+    <t>1229609812</t>
+  </si>
+  <si>
+    <t>CESAC ZS 45 (811465)</t>
+  </si>
+  <si>
+    <t>COCHABAMBA 2622</t>
+  </si>
+  <si>
+    <t>-34.625274</t>
+  </si>
+  <si>
+    <t>-58.402132</t>
+  </si>
+  <si>
+    <t>11 /</t>
+  </si>
+  <si>
+    <t>811465</t>
+  </si>
+  <si>
+    <t>000000001229609812</t>
+  </si>
+  <si>
+    <t>1252</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>1229609816</t>
+  </si>
+  <si>
+    <t>CESAC ZN 23 ( 811466)</t>
+  </si>
+  <si>
+    <t>BACACAY 5640</t>
+  </si>
+  <si>
+    <t>811466</t>
+  </si>
+  <si>
+    <t>000000001229609816</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>1229609818</t>
+  </si>
+  <si>
+    <t>CESAC ZN 36 ( 811467)</t>
+  </si>
+  <si>
+    <t>MERCEDES 1371/79</t>
+  </si>
+  <si>
+    <t>811467</t>
+  </si>
+  <si>
+    <t>000000001229609818</t>
+  </si>
+  <si>
+    <t>1419</t>
+  </si>
+  <si>
+    <t>1229609994</t>
+  </si>
+  <si>
+    <t>CESAC ZS 11 (811469)</t>
+  </si>
+  <si>
+    <t>AGÜERO 940</t>
+  </si>
+  <si>
+    <t>811469</t>
+  </si>
+  <si>
+    <t>000000001229609994</t>
+  </si>
+  <si>
+    <t>1171</t>
+  </si>
+  <si>
+    <t>1229609996</t>
+  </si>
+  <si>
+    <t>CESAC ZS 32 (811459)</t>
+  </si>
+  <si>
+    <t>CHARRUA 2900</t>
+  </si>
+  <si>
+    <t>-34.654267</t>
+  </si>
+  <si>
+    <t>-58.431157</t>
+  </si>
+  <si>
+    <t>811459</t>
+  </si>
+  <si>
+    <t>000000001229609996</t>
+  </si>
+  <si>
+    <t>1229610215</t>
+  </si>
+  <si>
+    <t>CESAC ZN 2 (811463)</t>
+  </si>
+  <si>
+    <t>TERRADA 5850</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>-34.576545</t>
+  </si>
+  <si>
+    <t>-58.509316</t>
+  </si>
+  <si>
+    <t>811463</t>
+  </si>
+  <si>
+    <t>000000001229610215</t>
+  </si>
+  <si>
+    <t>1229610247</t>
+  </si>
+  <si>
+    <t>CESAC 27 (811462)</t>
+  </si>
+  <si>
+    <t>ARIAS 3783</t>
+  </si>
+  <si>
+    <t>-34.547671</t>
+  </si>
+  <si>
+    <t>-58.48663</t>
+  </si>
+  <si>
+    <t>811462</t>
+  </si>
+  <si>
+    <t>000000001229610247</t>
+  </si>
+  <si>
+    <t>1430</t>
+  </si>
+  <si>
+    <t>1229610369</t>
+  </si>
+  <si>
+    <t>CESAC ZS 6 (811522)</t>
+  </si>
+  <si>
+    <t>M ACOSTA Y ROCA (Bº FATIMA)</t>
+  </si>
+  <si>
+    <t>811522</t>
+  </si>
+  <si>
+    <t>000000001229610369</t>
+  </si>
+  <si>
+    <t>1229610470</t>
+  </si>
+  <si>
+    <t>CESAC ZS 14 (811486)</t>
+  </si>
+  <si>
+    <t>SARAVIA 2486</t>
+  </si>
+  <si>
+    <t>811486</t>
+  </si>
+  <si>
+    <t>000000001229610470</t>
+  </si>
+  <si>
+    <t>1229610510</t>
+  </si>
+  <si>
+    <t>CESAC ZS 40 ( 811422)</t>
+  </si>
+  <si>
+    <t>ESTEBAN BONORINO 1729</t>
+  </si>
+  <si>
+    <t>811422</t>
+  </si>
+  <si>
+    <t>000000001229610510</t>
+  </si>
+  <si>
+    <t>1406</t>
+  </si>
+  <si>
+    <t>1229610582</t>
+  </si>
+  <si>
+    <t>CECILIA GRIERSON (1022122)</t>
+  </si>
+  <si>
+    <t>1022122</t>
+  </si>
+  <si>
+    <t>000000001229610582</t>
+  </si>
+  <si>
+    <t>1229610996</t>
+  </si>
+  <si>
+    <t>INSTITUTO PASTEUR  ( 1021848)</t>
+  </si>
+  <si>
+    <t>DIAZ VELEZ 4821</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1021848</t>
+  </si>
+  <si>
+    <t>000000001229610996</t>
+  </si>
+  <si>
+    <t>1405</t>
+  </si>
+  <si>
+    <t>1229611037</t>
+  </si>
+  <si>
+    <t>PENNA (1022148)</t>
+  </si>
+  <si>
+    <t>ALMAFUERTE 406</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1022148</t>
+  </si>
+  <si>
+    <t>000000001229611037</t>
+  </si>
+  <si>
+    <t>1229611171</t>
+  </si>
+  <si>
+    <t>CEMAR 2 (811523)</t>
+  </si>
+  <si>
+    <t>AV. IRIARTE 3501</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>811523</t>
+  </si>
+  <si>
+    <t>000000001229611171</t>
+  </si>
+  <si>
+    <t>1229611253</t>
+  </si>
+  <si>
+    <t>CESAC ZS 24 (811370)</t>
+  </si>
+  <si>
+    <t>PASAJE L 2300</t>
+  </si>
+  <si>
+    <t>811370</t>
+  </si>
+  <si>
+    <t>000000001229611253</t>
+  </si>
+  <si>
+    <t>1229642181</t>
+  </si>
+  <si>
+    <t>ARGERICH (811428)</t>
+  </si>
+  <si>
+    <t>REGIMIENTO DE PATRICIOS 1941</t>
+  </si>
+  <si>
+    <t>811428</t>
+  </si>
+  <si>
+    <t>000000001229642181</t>
+  </si>
+  <si>
+    <t>1266</t>
+  </si>
+  <si>
+    <t>20251127</t>
+  </si>
+  <si>
+    <t>1229642182</t>
+  </si>
+  <si>
+    <t>CESAC ZS 44 (811427)</t>
+  </si>
+  <si>
+    <t>SARAZA 4202</t>
+  </si>
+  <si>
+    <t>811427</t>
+  </si>
+  <si>
+    <t>000000001229642182</t>
+  </si>
+  <si>
+    <t>1229642745</t>
+  </si>
+  <si>
+    <t>CESAC ZN 25 (811371)</t>
+  </si>
+  <si>
+    <t>VICUÑA 1432</t>
+  </si>
+  <si>
+    <t>811371</t>
+  </si>
+  <si>
+    <t>000000001229642745</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>1229642806</t>
+  </si>
+  <si>
+    <t>CESAC ZN 33 (811378)</t>
+  </si>
+  <si>
+    <t>AV CORDOBA 5741</t>
+  </si>
+  <si>
+    <t>811378</t>
+  </si>
+  <si>
+    <t>000000001229642806</t>
+  </si>
+  <si>
+    <t>1414</t>
+  </si>
+  <si>
+    <t>1229642807</t>
+  </si>
+  <si>
+    <t>CESAC 49 (811430)</t>
+  </si>
+  <si>
+    <t>CAMINO DE SIRGA Y AGUSTÍN MAGALDI</t>
+  </si>
+  <si>
+    <t>811430</t>
+  </si>
+  <si>
+    <t>000000001229642807</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>1229668770</t>
+  </si>
+  <si>
+    <t>SANTOJANNI (1022331)</t>
+  </si>
+  <si>
+    <t>PILAR 950</t>
+  </si>
+  <si>
+    <t>1022331</t>
+  </si>
+  <si>
+    <t>000000001229668770</t>
+  </si>
+  <si>
+    <t>1408</t>
+  </si>
+  <si>
+    <t>1229669451</t>
+  </si>
+  <si>
+    <t>CECILIA GRIERSON (811535)</t>
+  </si>
+  <si>
+    <t>811535</t>
+  </si>
+  <si>
+    <t>000000001229669451</t>
+  </si>
+  <si>
+    <t>1229669508</t>
+  </si>
+  <si>
+    <t>ALVAREZ  (811532)</t>
+  </si>
+  <si>
+    <t>ARANGUREN 2701</t>
+  </si>
+  <si>
+    <t>811532</t>
+  </si>
+  <si>
+    <t>000000001229669508</t>
+  </si>
+  <si>
+    <t>1229669539</t>
+  </si>
+  <si>
+    <t>SARDA (1022348)</t>
+  </si>
+  <si>
+    <t>ESTEBAN DE LUCA 2151</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>-34.634813</t>
+  </si>
+  <si>
+    <t>-58.402651</t>
+  </si>
+  <si>
+    <t>1022348</t>
+  </si>
+  <si>
+    <t>000000001229669539</t>
+  </si>
+  <si>
+    <t>1246</t>
+  </si>
+  <si>
+    <t>1229670115</t>
+  </si>
+  <si>
+    <t>TORNU (811531)</t>
+  </si>
+  <si>
+    <t>COMBATIENTES DE MALVINAS 3002</t>
+  </si>
+  <si>
+    <t>811531</t>
+  </si>
+  <si>
+    <t>000000001229670115</t>
+  </si>
+  <si>
+    <t>1229670120</t>
+  </si>
+  <si>
+    <t>CESAC ZS 10 (811503)</t>
+  </si>
+  <si>
+    <t>811503</t>
+  </si>
+  <si>
+    <t>000000001229670120</t>
+  </si>
+  <si>
+    <t>1229671086</t>
+  </si>
+  <si>
+    <t>HOGAR SAN MARTIN (811564)</t>
+  </si>
+  <si>
+    <t>PEDRO DE MENDOZA 3865</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>811564</t>
+  </si>
+  <si>
+    <t>000000001229671086</t>
+  </si>
+  <si>
+    <t>1427</t>
+  </si>
+  <si>
+    <t>1229671907</t>
+  </si>
+  <si>
+    <t>CESAC ZS 43 (811541)</t>
+  </si>
+  <si>
+    <t>FOUNTOUGE 4377</t>
+  </si>
+  <si>
+    <t>4323-4375 /</t>
+  </si>
+  <si>
+    <t>811541</t>
+  </si>
+  <si>
+    <t>000000001229671907</t>
+  </si>
+  <si>
+    <t>1229672023</t>
+  </si>
+  <si>
+    <t>PINEIRO (811565)</t>
+  </si>
+  <si>
+    <t>VARELA 1301</t>
+  </si>
+  <si>
+    <t>811565</t>
+  </si>
+  <si>
+    <t>000000001229672023</t>
+  </si>
+  <si>
+    <t>1229672705</t>
+  </si>
+  <si>
+    <t>CESAC ZS 29 (811508)</t>
+  </si>
+  <si>
+    <t>LOS ÁLAMOS Y AV. GRAL PAZ</t>
+  </si>
+  <si>
+    <t>811508</t>
+  </si>
+  <si>
+    <t>000000001229672705</t>
+  </si>
+  <si>
+    <t>1229673129</t>
+  </si>
+  <si>
+    <t>SANTOJANNI (811506)</t>
+  </si>
+  <si>
+    <t>811506</t>
+  </si>
+  <si>
+    <t>000000001229673129</t>
+  </si>
+  <si>
+    <t>1229673734</t>
+  </si>
+  <si>
+    <t>PENNA (811554)</t>
+  </si>
+  <si>
+    <t>811554</t>
+  </si>
+  <si>
+    <t>000000001229673734</t>
+  </si>
+  <si>
+    <t>1229674347</t>
+  </si>
+  <si>
+    <t>CESAC 22 ( 811560)</t>
   </si>
   <si>
     <t>FRAGATA ARGENTINA  2126 / 2160</t>
   </si>
   <si>
-    <t>1 /</t>
-  </si>
-  <si>
-    <t>811404</t>
-  </si>
-  <si>
-    <t>000000001229571576</t>
+    <t>811560</t>
+  </si>
+  <si>
+    <t>000000001229674347</t>
   </si>
   <si>
     <t>1416</t>
   </si>
   <si>
-    <t>1229572000</t>
-  </si>
-  <si>
-    <t>CESAC ZS 41 (811406)</t>
-  </si>
-  <si>
-    <t>MINISTRO BRIN 842</t>
-  </si>
-  <si>
-    <t>811406</t>
-  </si>
-  <si>
-    <t>000000001229572000</t>
-  </si>
-  <si>
-    <t>1158</t>
-  </si>
-  <si>
-    <t>1229572843</t>
-  </si>
-  <si>
-    <t>PIROVANO (1021041)</t>
-  </si>
-  <si>
-    <t>MONROE 3555</t>
-  </si>
-  <si>
-    <t>1021041</t>
-  </si>
-  <si>
-    <t>000000001229572843</t>
-  </si>
-  <si>
-    <t>1430</t>
-  </si>
-  <si>
-    <t>1229572909</t>
-  </si>
-  <si>
-    <t>CESAC ZN 36 ( 811352)</t>
-  </si>
-  <si>
-    <t>MERCEDES 1371/79</t>
-  </si>
-  <si>
-    <t>811352</t>
-  </si>
-  <si>
-    <t>000000001229572909</t>
-  </si>
-  <si>
-    <t>1419</t>
-  </si>
-  <si>
-    <t>1229572910</t>
-  </si>
-  <si>
-    <t>DURAND ( 811407)</t>
-  </si>
-  <si>
-    <t>AV DIAZ VELEZ 5044</t>
-  </si>
-  <si>
-    <t>811407</t>
-  </si>
-  <si>
-    <t>000000001229572910</t>
-  </si>
-  <si>
-    <t>1405</t>
-  </si>
-  <si>
-    <t>1229573331</t>
-  </si>
-  <si>
-    <t>GUTIERREZ (1021511)</t>
-  </si>
-  <si>
-    <t>GALLO 1330</t>
-  </si>
-  <si>
-    <t>1021511</t>
-  </si>
-  <si>
-    <t>000000001229573331</t>
-  </si>
-  <si>
-    <t>1425</t>
-  </si>
-  <si>
-    <t>1229573336</t>
-  </si>
-  <si>
-    <t>CESAC ZS 15 (811400)</t>
-  </si>
-  <si>
-    <t>BALCARCE 1150</t>
-  </si>
-  <si>
-    <t>811400</t>
-  </si>
-  <si>
-    <t>000000001229573336</t>
-  </si>
-  <si>
-    <t>1064</t>
-  </si>
-  <si>
-    <t>1229574341</t>
-  </si>
-  <si>
-    <t>TORNU ( 1021328)</t>
-  </si>
-  <si>
-    <t>COMBATIENTES DE MALVINAS 3002</t>
-  </si>
-  <si>
-    <t>1021328</t>
-  </si>
-  <si>
-    <t>000000001229574341</t>
-  </si>
-  <si>
-    <t>1407</t>
-  </si>
-  <si>
-    <t>1229574343</t>
-  </si>
-  <si>
-    <t>GUTIERREZ ( 811420)</t>
-  </si>
-  <si>
-    <t>811420</t>
-  </si>
-  <si>
-    <t>000000001229574343</t>
-  </si>
-  <si>
-    <t>1229574551</t>
-  </si>
-  <si>
-    <t>ALVEAR (811403)</t>
-  </si>
-  <si>
-    <t>AV WARNES 2550</t>
-  </si>
-  <si>
-    <t>811403</t>
-  </si>
-  <si>
-    <t>000000001229574551</t>
-  </si>
-  <si>
-    <t>1427</t>
-  </si>
-  <si>
-    <t>1229575182</t>
-  </si>
-  <si>
-    <t>BORDA (811410)</t>
-  </si>
-  <si>
-    <t>RAMON CARRILLO 375</t>
+    <t>1229674472</t>
+  </si>
+  <si>
+    <t>Fundacion Huesped ( 811566)</t>
+  </si>
+  <si>
+    <t>DR.CARLOS GIANANTONIO 3932</t>
+  </si>
+  <si>
+    <t>9 /</t>
+  </si>
+  <si>
+    <t>811566</t>
+  </si>
+  <si>
+    <t>000000001229674472</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>1229674972</t>
+  </si>
+  <si>
+    <t>SANTOJANNI (1022343)</t>
+  </si>
+  <si>
+    <t>1022343</t>
+  </si>
+  <si>
+    <t>000000001229674972</t>
+  </si>
+  <si>
+    <t>1229674974</t>
+  </si>
+  <si>
+    <t>PEDRO DE ELIZALDE (811577)</t>
+  </si>
+  <si>
+    <t>MONTES DE OCA 40</t>
+  </si>
+  <si>
+    <t>811577</t>
+  </si>
+  <si>
+    <t>000000001229674974</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>1229676912</t>
+  </si>
+  <si>
+    <t>PENNA (1022574)</t>
+  </si>
+  <si>
+    <t>1022574</t>
+  </si>
+  <si>
+    <t>000000001229676912</t>
+  </si>
+  <si>
+    <t>1229676914</t>
+  </si>
+  <si>
+    <t>CESAC 28 (811521)</t>
+  </si>
+  <si>
+    <t>SANTANDER 5955</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>811410</t>
-  </si>
-  <si>
-    <t>000000001229575182</t>
-  </si>
-  <si>
-    <t>1275</t>
-  </si>
-  <si>
-    <t>1229575311</t>
-  </si>
-  <si>
-    <t>CESAC ZS 19 (811439)</t>
-  </si>
-  <si>
-    <t>CURAPALIGUE 1905</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>811439</t>
-  </si>
-  <si>
-    <t>000000001229575311</t>
-  </si>
-  <si>
-    <t>1439</t>
-  </si>
-  <si>
-    <t>1229576233</t>
-  </si>
-  <si>
-    <t>CESAC 48 ( 811429)</t>
-  </si>
-  <si>
-    <t>AV. FERNANDEZ DE LA CRUZ 1745/53</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>8 /</t>
-  </si>
-  <si>
-    <t>811429</t>
-  </si>
-  <si>
-    <t>000000001229576233</t>
-  </si>
-  <si>
-    <t>1437</t>
-  </si>
-  <si>
-    <t>1229577679</t>
-  </si>
-  <si>
-    <t>RAMOS MEJIA (1021490)</t>
-  </si>
-  <si>
-    <t>URQUIZA 609</t>
-  </si>
-  <si>
-    <t>1021490</t>
-  </si>
-  <si>
-    <t>000000001229577679</t>
-  </si>
-  <si>
-    <t>1221</t>
-  </si>
-  <si>
-    <t>1229578837</t>
-  </si>
-  <si>
-    <t>CESAC ZN 23 (811369)</t>
-  </si>
-  <si>
-    <t>BACACAY 5640</t>
-  </si>
-  <si>
-    <t>811369</t>
-  </si>
-  <si>
-    <t>000000001229578837</t>
-  </si>
-  <si>
-    <t>1229578840</t>
-  </si>
-  <si>
-    <t>CESAC ZS 41 (811423)</t>
-  </si>
-  <si>
-    <t>811423</t>
-  </si>
-  <si>
-    <t>000000001229578840</t>
-  </si>
-  <si>
-    <t>1229579732</t>
-  </si>
-  <si>
-    <t>CESAC 42 ( 811425)</t>
-  </si>
-  <si>
-    <t>DONATO ALVAREZ</t>
-  </si>
-  <si>
-    <t>811425</t>
-  </si>
-  <si>
-    <t>000000001229579732</t>
-  </si>
-  <si>
-    <t>1229581970</t>
-  </si>
-  <si>
-    <t>CESAC ZS 19 (811325)</t>
-  </si>
-  <si>
-    <t>811325</t>
-  </si>
-  <si>
-    <t>000000001229581970</t>
-  </si>
-  <si>
-    <t>1229582518</t>
-  </si>
-  <si>
-    <t>CESAC ZN 26 (811372)</t>
-  </si>
-  <si>
-    <t>GURRUCHAGA 1939</t>
-  </si>
-  <si>
-    <t>-34.58719398</t>
-  </si>
-  <si>
-    <t>-58.42575153</t>
-  </si>
-  <si>
-    <t>811372</t>
-  </si>
-  <si>
-    <t>000000001229582518</t>
-  </si>
-  <si>
-    <t>1414</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>1229582872</t>
-  </si>
-  <si>
-    <t>CESAC 27 (811373)</t>
-  </si>
-  <si>
-    <t>ARIAS 3783</t>
-  </si>
-  <si>
-    <t>-34.547671</t>
-  </si>
-  <si>
-    <t>-58.48663</t>
-  </si>
-  <si>
-    <t>811373</t>
-  </si>
-  <si>
-    <t>000000001229582872</t>
-  </si>
-  <si>
-    <t>1229589222</t>
-  </si>
-  <si>
-    <t>CESAC ZN 36 (811381)</t>
-  </si>
-  <si>
-    <t>811381</t>
-  </si>
-  <si>
-    <t>000000001229589222</t>
-  </si>
-  <si>
-    <t>1229590826</t>
-  </si>
-  <si>
-    <t>CECILIA GRIERSON (1021173)</t>
-  </si>
-  <si>
-    <t>AV CRUZ 4402</t>
-  </si>
-  <si>
-    <t>1021173</t>
-  </si>
-  <si>
-    <t>000000001229590826</t>
-  </si>
-  <si>
-    <t>DISTRIBUCION URGENTE / CON SEGURO</t>
-  </si>
-  <si>
-    <t>1229590979</t>
-  </si>
-  <si>
-    <t>CEMAR 2  ( 811526)</t>
-  </si>
-  <si>
-    <t>AV. IRIARTE 3501</t>
-  </si>
-  <si>
-    <t>811526</t>
-  </si>
-  <si>
-    <t>000000001229590979</t>
-  </si>
-  <si>
-    <t>1229590980</t>
-  </si>
-  <si>
-    <t>DURAND (1021837)</t>
-  </si>
-  <si>
-    <t>AV. DIAZ VELEZ 5044</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1021837</t>
-  </si>
-  <si>
-    <t>000000001229590980</t>
-  </si>
-  <si>
-    <t>1229591178</t>
-  </si>
-  <si>
-    <t>CESAC ZS 39 (811488)</t>
-  </si>
-  <si>
-    <t>24 DE NOVIEMBRE 1679</t>
-  </si>
-  <si>
-    <t>-34.630889</t>
-  </si>
-  <si>
-    <t>-58.409832</t>
-  </si>
-  <si>
-    <t>811488</t>
-  </si>
-  <si>
-    <t>000000001229591178</t>
-  </si>
-  <si>
-    <t>1242</t>
-  </si>
-  <si>
-    <t>1229591261</t>
-  </si>
-  <si>
-    <t>SARDA (811533)</t>
-  </si>
-  <si>
-    <t>ESTEBAN DE LUCA 2151</t>
-  </si>
-  <si>
-    <t>-34.634813</t>
-  </si>
-  <si>
-    <t>-58.402651</t>
-  </si>
-  <si>
-    <t>811533</t>
-  </si>
-  <si>
-    <t>000000001229591261</t>
-  </si>
-  <si>
-    <t>1246</t>
-  </si>
-  <si>
-    <t>1229591431</t>
-  </si>
-  <si>
-    <t>FERRER (811501)</t>
-  </si>
-  <si>
-    <t>FINOCHIETTO  849</t>
-  </si>
-  <si>
-    <t>811501</t>
-  </si>
-  <si>
-    <t>000000001229591431</t>
-  </si>
-  <si>
-    <t>1272</t>
-  </si>
-  <si>
-    <t>1229591439</t>
-  </si>
-  <si>
-    <t>ARGERICH (811509)</t>
-  </si>
-  <si>
-    <t>CORBETA PY Y MARGALL 750</t>
-  </si>
-  <si>
-    <t>811509</t>
-  </si>
-  <si>
-    <t>000000001229591439</t>
-  </si>
-  <si>
-    <t>1155</t>
-  </si>
-  <si>
-    <t>1229591691</t>
-  </si>
-  <si>
-    <t>CESAC ZS 11 (811490)</t>
-  </si>
-  <si>
-    <t>AGÜERO 940</t>
-  </si>
-  <si>
-    <t>811490</t>
-  </si>
-  <si>
-    <t>000000001229591691</t>
-  </si>
-  <si>
-    <t>1171</t>
-  </si>
-  <si>
-    <t>1229591699</t>
-  </si>
-  <si>
-    <t>FERRER (811528)</t>
-  </si>
-  <si>
-    <t>FINOCHIETTO 849</t>
-  </si>
-  <si>
-    <t>811528</t>
-  </si>
-  <si>
-    <t>000000001229591699</t>
-  </si>
-  <si>
-    <t>1229592425</t>
-  </si>
-  <si>
-    <t>ARGERICH  (1022032)</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1022032</t>
-  </si>
-  <si>
-    <t>000000001229592425</t>
-  </si>
-  <si>
-    <t>1229593477</t>
-  </si>
-  <si>
-    <t>SARDA (1021872)</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1021872</t>
-  </si>
-  <si>
-    <t>000000001229593477</t>
-  </si>
-  <si>
-    <t>1229595535</t>
-  </si>
-  <si>
-    <t>PEDRO DE ELIZALDE (811525)</t>
-  </si>
-  <si>
-    <t>MONTES DE OCA 40</t>
-  </si>
-  <si>
-    <t>811525</t>
-  </si>
-  <si>
-    <t>000000001229595535</t>
-  </si>
-  <si>
-    <t>1270</t>
+    <t>-34.673019</t>
+  </si>
+  <si>
+    <t>-58.485991</t>
+  </si>
+  <si>
+    <t>4605-2148 /</t>
+  </si>
+  <si>
+    <t>811521</t>
+  </si>
+  <si>
+    <t>000000001229676914</t>
+  </si>
+  <si>
+    <t>1229676919</t>
+  </si>
+  <si>
+    <t>QUINQUELA MARTIN (1022301)</t>
+  </si>
+  <si>
+    <t>PEDRO DE MENDOZA 1795</t>
+  </si>
+  <si>
+    <t>1022301</t>
+  </si>
+  <si>
+    <t>000000001229676919</t>
+  </si>
+  <si>
+    <t>1169</t>
+  </si>
+  <si>
+    <t>1229677021</t>
+  </si>
+  <si>
+    <t>SANTOJANNI (1022378)</t>
+  </si>
+  <si>
+    <t>1022378</t>
+  </si>
+  <si>
+    <t>000000001229677021</t>
+  </si>
+  <si>
+    <t>1229677188</t>
+  </si>
+  <si>
+    <t>ALVAREZ  (1021462)</t>
+  </si>
+  <si>
+    <t>1021462</t>
+  </si>
+  <si>
+    <t>000000001229677188</t>
   </si>
 </sst>
 </file>
@@ -1896,8 +1953,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9009F2D2-1B7B-4D78-BC86-4436594920EA}">
-  <dimension ref="A1:AX43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E25989F-B00B-485E-9F93-505942BDC02D}">
+  <dimension ref="A1:AX49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1906,10 +1963,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -1925,7 +1982,7 @@
     <col min="18" max="18" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="32.85546875" bestFit="1" customWidth="1"/>
@@ -1945,7 +2002,7 @@
     <col min="40" max="40" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="14" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="45" max="46" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -2121,86 +2178,90 @@
         <v>53</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N2" s="3">
-        <v>1.8</v>
+        <v>1.6E-2</v>
       </c>
       <c r="O2" s="3">
-        <v>334.45</v>
+        <v>3</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="4">
-        <v>0</v>
+        <v>976425</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
+      <c r="W2" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AK2" s="1"/>
       <c r="AL2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM2" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="AN2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR2" s="1"/>
       <c r="AS2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
@@ -2210,99 +2271,103 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="3">
-        <v>1.8</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="O3" s="3">
-        <v>331.96</v>
+        <v>6</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="4">
-        <v>0</v>
+        <v>506291.5</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="W3" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AK3" s="1"/>
       <c r="AL3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM3" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="AN3" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
@@ -2312,99 +2377,101 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N4" s="3">
-        <v>1.2</v>
+        <v>1.9470000000000001</v>
       </c>
       <c r="O4" s="3">
-        <v>299.49</v>
+        <v>505</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="4">
-        <v>0</v>
+        <v>2697750</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
+      <c r="W4" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AK4" s="1"/>
       <c r="AL4" s="1" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
@@ -2414,99 +2481,101 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N5" s="3">
-        <v>1.2</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="O5" s="3">
-        <v>299.19</v>
+        <v>61.16</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="4">
-        <v>0</v>
+        <v>2512907</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
+      <c r="W5" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AK5" s="1"/>
       <c r="AL5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
@@ -2516,55 +2585,55 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N6" s="3">
-        <v>0.96</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O6" s="3">
-        <v>132.99</v>
+        <v>1</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="4">
-        <v>0</v>
+        <v>84163.48</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1" t="s">
@@ -2578,41 +2647,39 @@
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="AK6" s="1"/>
       <c r="AL6" s="1" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="AM6" s="1"/>
       <c r="AN6" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
@@ -2622,99 +2689,101 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N7" s="3">
-        <v>1.2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O7" s="3">
-        <v>250.51</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="4">
-        <v>0</v>
+        <v>863025</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="W7" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="AK7" s="1"/>
       <c r="AL7" s="1" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR7" s="1"/>
       <c r="AS7" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
@@ -2734,89 +2803,91 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N8" s="3">
-        <v>0.96</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O8" s="3">
-        <v>116.59</v>
+        <v>1</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="4">
-        <v>0</v>
+        <v>1469259.6</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="W8" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="AK8" s="1"/>
       <c r="AL8" s="1" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="AM8" s="1"/>
       <c r="AN8" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR8" s="1"/>
       <c r="AS8" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
@@ -2826,203 +2897,211 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N9" s="3">
-        <v>0.96</v>
+        <v>0.747</v>
       </c>
       <c r="O9" s="3">
-        <v>132.08000000000001</v>
+        <v>212</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="4">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
+        <v>1798500</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="AK9" s="1"/>
       <c r="AL9" s="1" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR9" s="1"/>
       <c r="AS9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
+      <c r="AU9" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N10" s="3">
-        <v>2.7E-2</v>
+        <v>0.747</v>
       </c>
       <c r="O10" s="3">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="4">
-        <v>1400000</v>
+        <v>1798500</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR10" s="1"/>
       <c r="AS10" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
@@ -3032,101 +3111,101 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N11" s="3">
-        <v>1.6E-2</v>
+        <v>0.747</v>
       </c>
       <c r="O11" s="3">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="4">
-        <v>45241.2</v>
+        <v>1798500</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR11" s="1"/>
       <c r="AS11" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
@@ -3136,101 +3215,101 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N12" s="3">
-        <v>1.6E-2</v>
+        <v>0.747</v>
       </c>
       <c r="O12" s="3">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="4">
-        <v>749625</v>
+        <v>1798500</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR12" s="1"/>
       <c r="AS12" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
@@ -3240,101 +3319,105 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N13" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>0.747</v>
       </c>
       <c r="O13" s="3">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="4">
-        <v>75625</v>
-      </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+        <v>1798500</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="W13" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR13" s="1"/>
       <c r="AS13" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
@@ -3344,309 +3427,321 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N14" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="O14" s="3">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="4">
-        <v>90340.5</v>
-      </c>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+        <v>899250</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="W14" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR14" s="1"/>
       <c r="AS14" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
+      <c r="AU14" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N15" s="3">
-        <v>1.6E-2</v>
+        <v>1.2270000000000001</v>
       </c>
       <c r="O15" s="3">
-        <v>3</v>
+        <v>312</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="4">
-        <v>250317.5</v>
-      </c>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+        <v>2697750</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="W15" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
+      <c r="AU15" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N16" s="3">
-        <v>1.6E-2</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="O16" s="3">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="4">
-        <v>156860</v>
+        <v>164744.4</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR16" s="1"/>
       <c r="AS16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
@@ -3656,101 +3751,101 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N17" s="3">
-        <v>2.7E-2</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="O17" s="3">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="4">
-        <v>976425</v>
+        <v>182059.2</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AM17" s="1"/>
       <c r="AN17" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR17" s="1"/>
       <c r="AS17" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
@@ -3760,101 +3855,101 @@
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N18" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="O18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="4">
-        <v>26412.54</v>
+        <v>664939.84</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR18" s="1"/>
       <c r="AS18" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT18" s="1"/>
       <c r="AU18" s="1"/>
@@ -3864,101 +3959,101 @@
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N19" s="3">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="O19" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="4">
-        <v>16934424.719999999</v>
+        <v>1384579</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR19" s="1"/>
       <c r="AS19" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT19" s="1"/>
       <c r="AU19" s="1"/>
@@ -3968,101 +4063,101 @@
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N20" s="3">
-        <v>1.6E-2</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="O20" s="3">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="4">
-        <v>40899.5</v>
+        <v>148430.35999999999</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT20" s="1"/>
       <c r="AU20" s="1"/>
@@ -4072,101 +4167,101 @@
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N21" s="3">
-        <v>8.1000000000000003E-2</v>
+        <v>0.108</v>
       </c>
       <c r="O21" s="3">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="4">
-        <v>335446.7</v>
+        <v>5034540</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X21" s="1"/>
       <c r="Y21" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1" t="s">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT21" s="1"/>
       <c r="AU21" s="1"/>
@@ -4176,101 +4271,101 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N22" s="3">
-        <v>0.34699999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="O22" s="3">
         <v>24</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="4">
-        <v>182059.2</v>
+        <v>1324804.1000000001</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="X22" s="1"/>
       <c r="Y22" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1" t="s">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR22" s="1"/>
       <c r="AS22" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
@@ -4280,101 +4375,101 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N23" s="3">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="O23" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="4">
-        <v>771302.64</v>
+        <v>692969.84</v>
       </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1" t="s">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR23" s="1"/>
       <c r="AS23" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT23" s="1"/>
       <c r="AU23" s="1"/>
@@ -4384,101 +4479,101 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N24" s="3">
-        <v>2.7E-2</v>
+        <v>0.06</v>
       </c>
       <c r="O24" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="4">
-        <v>1418271.47</v>
+        <v>700503.84</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X24" s="1"/>
       <c r="Y24" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ24" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR24" s="1"/>
       <c r="AS24" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT24" s="1"/>
       <c r="AU24" s="1"/>
@@ -4488,101 +4583,101 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N25" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="O25" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="4">
-        <v>678629.84</v>
+        <v>754796.64</v>
       </c>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ25" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR25" s="1"/>
       <c r="AS25" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT25" s="1"/>
       <c r="AU25" s="1"/>
@@ -4592,101 +4687,101 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N26" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="O26" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="4">
-        <v>696549.84</v>
+        <v>659379.84</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ26" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR26" s="1"/>
       <c r="AS26" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT26" s="1"/>
       <c r="AU26" s="1"/>
@@ -4696,101 +4791,101 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N27" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="O27" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="4">
-        <v>696549.84</v>
+        <v>697179.84</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1" t="s">
-        <v>143</v>
+        <v>232</v>
       </c>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR27" s="1"/>
       <c r="AS27" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
@@ -4800,101 +4895,101 @@
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N28" s="3">
         <v>0.06</v>
       </c>
       <c r="O28" s="3">
-        <v>12.791</v>
+        <v>6</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="4">
-        <v>688042.84</v>
+        <v>747649.64</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X28" s="1"/>
       <c r="Y28" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ28" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP28" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ28" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR28" s="1"/>
       <c r="AS28" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT28" s="1"/>
       <c r="AU28" s="1"/>
@@ -4904,321 +4999,309 @@
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N29" s="3">
-        <v>0.06</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="O29" s="3">
-        <v>11.941000000000001</v>
+        <v>16</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="4">
-        <v>669629.84</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>246</v>
-      </c>
+        <v>4397727.4000000004</v>
+      </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X29" s="1"/>
       <c r="Y29" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ29" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="AM29" s="1"/>
       <c r="AN29" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP29" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ29" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR29" s="1"/>
       <c r="AS29" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT29" s="1"/>
-      <c r="AU29" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>253</v>
+        <v>98</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N30" s="3">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="O30" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="4">
-        <v>731358.84</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>219974.39999999999</v>
+      </c>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
       <c r="W30" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X30" s="1"/>
       <c r="Y30" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ30" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="AM30" s="1"/>
       <c r="AN30" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP30" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ30" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR30" s="1"/>
       <c r="AS30" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT30" s="1"/>
-      <c r="AU30" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N31" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="O31" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="4">
-        <v>723985.84</v>
+        <v>109987.2</v>
       </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X31" s="1"/>
       <c r="Y31" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ31" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP31" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ31" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR31" s="1"/>
       <c r="AS31" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
@@ -5228,205 +5311,211 @@
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N32" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="O32" s="3">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="4">
-        <v>87239</v>
-      </c>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
+        <v>727011.4</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="W32" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X32" s="1"/>
       <c r="Y32" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ32" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO32" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP32" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ32" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR32" s="1"/>
       <c r="AS32" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT32" s="1"/>
-      <c r="AU32" s="1"/>
+      <c r="AU32" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N33" s="3">
-        <v>0.06</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="O33" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="4">
-        <v>933565</v>
+        <v>549936</v>
       </c>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="X33" s="1"/>
       <c r="Y33" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1" t="s">
-        <v>217</v>
+        <v>129</v>
       </c>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ33" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="AM33" s="1"/>
       <c r="AN33" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO33" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP33" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ33" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR33" s="1"/>
       <c r="AS33" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT33" s="1"/>
       <c r="AU33" s="1"/>
@@ -5436,101 +5525,101 @@
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>275</v>
+        <v>52</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N34" s="3">
-        <v>0.17399999999999999</v>
+        <v>0.112</v>
       </c>
       <c r="O34" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="4">
-        <v>473681</v>
+        <v>769910.4</v>
       </c>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X34" s="1"/>
       <c r="Y34" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ34" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK34" s="1"/>
       <c r="AL34" s="1" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO34" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP34" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ34" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR34" s="1"/>
       <c r="AS34" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT34" s="1"/>
       <c r="AU34" s="1"/>
@@ -5540,105 +5629,101 @@
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N35" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="O35" s="3">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>57</v>
+        <v>275</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="4">
-        <v>847.8</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>283</v>
-      </c>
+        <v>284165.15999999997</v>
+      </c>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X35" s="1"/>
       <c r="Y35" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ35" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="AM35" s="1"/>
       <c r="AN35" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO35" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP35" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ35" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR35" s="1"/>
       <c r="AS35" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT35" s="1"/>
       <c r="AU35" s="1"/>
@@ -5648,211 +5733,205 @@
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N36" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="O36" s="3">
         <v>1</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="4">
-        <v>17131.2</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>291</v>
-      </c>
+        <v>910624</v>
+      </c>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
       <c r="W36" s="1" t="s">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="X36" s="1"/>
       <c r="Y36" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1" t="s">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ36" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO36" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP36" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ36" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR36" s="1"/>
       <c r="AS36" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT36" s="1"/>
-      <c r="AU36" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N37" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="O37" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="4">
-        <v>421545</v>
+        <v>496603</v>
       </c>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X37" s="1"/>
       <c r="Y37" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1" t="s">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ37" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="AM37" s="1"/>
       <c r="AN37" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO37" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP37" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ37" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR37" s="1"/>
       <c r="AS37" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT37" s="1"/>
       <c r="AU37" s="1"/>
@@ -5862,101 +5941,101 @@
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N38" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="O38" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="4">
-        <v>219974.39999999999</v>
+        <v>549936</v>
       </c>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X38" s="1"/>
       <c r="Y38" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1" t="s">
-        <v>306</v>
+        <v>101</v>
       </c>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ38" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="AM38" s="1"/>
       <c r="AN38" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO38" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP38" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ38" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR38" s="1"/>
       <c r="AS38" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT38" s="1"/>
       <c r="AU38" s="1"/>
@@ -5966,101 +6045,101 @@
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N39" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>0.189</v>
       </c>
       <c r="O39" s="3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="4">
-        <v>12219</v>
+        <v>769910.4</v>
       </c>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X39" s="1"/>
       <c r="Y39" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ39" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="AM39" s="1"/>
       <c r="AN39" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO39" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP39" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ39" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR39" s="1"/>
       <c r="AS39" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT39" s="1"/>
       <c r="AU39" s="1"/>
@@ -6070,101 +6149,101 @@
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>315</v>
+        <v>194</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N40" s="3">
-        <v>4.2999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="O40" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="4">
-        <v>83414.2</v>
+        <v>8636.2000000000007</v>
       </c>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X40" s="1"/>
       <c r="Y40" s="1" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1" t="s">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ40" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK40" s="1"/>
       <c r="AL40" s="1" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="AM40" s="1"/>
       <c r="AN40" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO40" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP40" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ40" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR40" s="1"/>
       <c r="AS40" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT40" s="1"/>
       <c r="AU40" s="1"/>
@@ -6174,101 +6253,101 @@
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N41" s="3">
-        <v>0.32</v>
+        <v>1.6E-2</v>
       </c>
       <c r="O41" s="3">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>320</v>
+        <v>58</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="4">
-        <v>379976.4</v>
+        <v>508121</v>
       </c>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X41" s="1"/>
       <c r="Y41" s="1" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ41" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK41" s="1"/>
       <c r="AL41" s="1" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="AM41" s="1"/>
       <c r="AN41" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO41" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP41" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ41" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR41" s="1"/>
       <c r="AS41" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT41" s="1"/>
       <c r="AU41" s="1"/>
@@ -6278,217 +6357,839 @@
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N42" s="3">
-        <v>0.40500000000000003</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="O42" s="3">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="4">
-        <v>384900</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>291</v>
-      </c>
+        <v>2707996.8</v>
+      </c>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>140</v>
+        <v>312</v>
       </c>
       <c r="X42" s="1"/>
       <c r="Y42" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ42" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="AM42" s="1"/>
       <c r="AN42" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO42" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP42" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ42" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR42" s="1"/>
       <c r="AS42" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT42" s="1"/>
-      <c r="AU42" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
       <c r="AW42" s="1"/>
       <c r="AX42" s="1"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>330</v>
+        <v>241</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N43" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O43" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="4">
-        <v>219974.39999999999</v>
+        <v>3999220</v>
       </c>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X43" s="1"/>
       <c r="Y43" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ43" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AK43" s="1"/>
       <c r="AL43" s="1" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="AM43" s="1"/>
       <c r="AN43" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="AO43" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP43" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ43" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AR43" s="1"/>
       <c r="AS43" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT43" s="1"/>
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O44" s="3">
+        <v>3</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S44" s="1"/>
+      <c r="T44" s="4">
+        <v>572400</v>
+      </c>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ44" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O45" s="3">
+        <v>5</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S45" s="1"/>
+      <c r="T45" s="4">
+        <v>72160</v>
+      </c>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ45" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N46" s="3">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="O46" s="3">
+        <v>15</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S46" s="1"/>
+      <c r="T46" s="4">
+        <v>329961.59999999998</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ46" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="1"/>
+      <c r="AX46" s="1"/>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N47" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="O47" s="3">
+        <v>10</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S47" s="1"/>
+      <c r="T47" s="4">
+        <v>214044.1</v>
+      </c>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ47" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1"/>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="O48" s="3">
+        <v>16</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S48" s="1"/>
+      <c r="T48" s="4">
+        <v>2744925</v>
+      </c>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ48" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N49" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O49" s="3">
+        <v>6</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S49" s="1"/>
+      <c r="T49" s="4">
+        <v>1216063.05</v>
+      </c>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ49" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6497,7 +7198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B982E64B-0785-4E1E-A94A-0C3515B03530}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF0A059-F921-49B3-856F-0E1FE342F293}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6509,7 +7210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E5CDCD-27D2-40E7-9F32-CA321C0AECDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409B867C-302A-419D-90AF-230FF49AE593}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
